--- a/Proyecto de grado/Metodologia y documentacion/Agosto/Cap2_IdentificarFallas/Fallas.xlsx
+++ b/Proyecto de grado/Metodologia y documentacion/Agosto/Cap2_IdentificarFallas/Fallas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Documentos\Anteproyecto\Uniajc_Tesis_OTFV\Proyecto de grado\Metodologia y documentacion\Agosto\Cap2_IdentificarFallas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F3548F-3669-4A63-8542-781BAED3570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC73F6D-2CE4-434C-8E62-4BABA67EF990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5A2C035-61B2-44E5-A8B1-BA9C9E9A6E97}"/>
   </bookViews>
@@ -661,23 +661,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>155804</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>313764</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2679999</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2069502</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2752164</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2151531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9" descr="ACG Drone_Imagen térmica placa solar_termografía con drones 2018">
+        <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004209A4-39B2-44CD-8CF8-AE4474844B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F43B115-DB7D-45EE-B73E-D31BFC9D4225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,7 +685,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -693,15 +693,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="32357" t="3138" r="2814" b="2926"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9873545" y="7969623"/>
-          <a:ext cx="2524195" cy="1755738"/>
+          <a:off x="7037313" y="5441577"/>
+          <a:ext cx="2626639" cy="1990166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -722,57 +720,169 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>125525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71181</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>555812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2752164</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2151531</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2775585</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1980304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10">
+        <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F43B115-DB7D-45EE-B73E-D31BFC9D4225}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAD2160-E1A6-4877-8467-F84CA7CBDAB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="32357" t="3138" r="2814" b="2926"/>
-        <a:stretch/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7037313" y="5441577"/>
-          <a:ext cx="2626639" cy="1990166"/>
+          <a:off x="9788922" y="8211671"/>
+          <a:ext cx="2704404" cy="1424492"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385482</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>251012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2389542</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2041712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12CF586-9E67-4E10-B29C-F6F3E25494D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14287" t="3516" r="10118" b="7813"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10103223" y="779930"/>
+          <a:ext cx="2004060" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>277906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2608730</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2060351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13" descr="Imágenes y fotografías infrarrojas del módulo solar fotovoltaico de 10 W tomadas (a) con el adhesivo y (b) sin el adhesivo.  ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D195C62-CD66-4290-AC16-2B846D0A97C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="48346" t="176" b="49633"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9807389" y="5558118"/>
+          <a:ext cx="2519082" cy="1782445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1085,7 +1195,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Proyecto de grado/Metodologia y documentacion/Agosto/Cap2_IdentificarFallas/Fallas.xlsx
+++ b/Proyecto de grado/Metodologia y documentacion/Agosto/Cap2_IdentificarFallas/Fallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Documentos\Anteproyecto\Uniajc_Tesis_OTFV\Proyecto de grado\Metodologia y documentacion\Agosto\Cap2_IdentificarFallas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC73F6D-2CE4-434C-8E62-4BABA67EF990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7FC27-89E3-4364-8A2B-8E2EEAF980E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5A2C035-61B2-44E5-A8B1-BA9C9E9A6E97}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">TIPO DE FALLA </t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">IMAGEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMAGÉN TÉRMICA </t>
   </si>
   <si>
     <t>FALLAS MÁS COMUNES DE MODULOS FOTOVOLTAICOS</t>
@@ -105,12 +102,18 @@
       <t>Las celdas calientes ocurren cuando solo una parte de la celda apoya con la generación de corriente, a causa de roturas de la celda o cuando el contacto del colector de corriente falla.</t>
     </r>
   </si>
+  <si>
+    <t>IMAGÉN TÉRMICA 1</t>
+  </si>
+  <si>
+    <t>IMAGÉN TÉRMICA 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -171,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -222,11 +237,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,11 +297,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,67 +331,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2346960</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2190878</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C86CF74-36FE-456F-8E96-3D199A89C2FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4579620" y="723900"/>
-          <a:ext cx="1866900" cy="1992758"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
@@ -356,7 +353,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -372,108 +369,6 @@
         <a:xfrm>
           <a:off x="4457700" y="3185160"/>
           <a:ext cx="2148840" cy="1737360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>350520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2019935</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EE864F-4621-4768-AE1C-4612CD429549}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="26668"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4572000" y="5631180"/>
-          <a:ext cx="1851660" cy="1669415"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2443480</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1952625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D71EA7-CB2F-4DD9-AB69-E3750E45EDFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="-2653" t="642" b="1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7216140" y="952500"/>
-          <a:ext cx="2131060" cy="1525905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -511,7 +406,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -564,7 +459,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -625,7 +520,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -661,75 +556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>125525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2752164</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2151531</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F43B115-DB7D-45EE-B73E-D31BFC9D4225}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="32357" t="3138" r="2814" b="2926"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7037313" y="5441577"/>
-          <a:ext cx="2626639" cy="1990166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>71181</xdr:colOff>
+      <xdr:colOff>44287</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>555812</xdr:rowOff>
+      <xdr:rowOff>502023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2775585</xdr:colOff>
+      <xdr:colOff>2748691</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1980304</xdr:rowOff>
+      <xdr:rowOff>1926515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -745,7 +581,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -759,7 +595,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9788922" y="8211671"/>
+          <a:off x="9762028" y="8157882"/>
           <a:ext cx="2704404" cy="1424492"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -800,7 +636,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -858,7 +694,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -883,6 +719,239 @@
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104214</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2716306</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2160493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B2A2FB-AFD3-4F1C-BE2F-B4DB55D8BF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9821955" y="3074893"/>
+          <a:ext cx="2612092" cy="1990165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412378</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2294966</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2309650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FA7E60-6B9B-4A5D-B42D-E123CF24C98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4518213" y="645457"/>
+          <a:ext cx="1882588" cy="2193111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259977</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2492189</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2161206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DECA2A-4E31-436A-8E8E-5B638A780547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7171765" y="744069"/>
+          <a:ext cx="2232212" cy="1946055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>278900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>340657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2581835</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2088682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE023733-10A7-45C0-AF9A-C6AF6D2CDAF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7190688" y="5620869"/>
+          <a:ext cx="2302935" cy="1748025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1192,10 +1261,10 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,35 +1274,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
+      <c r="A1" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
+      <c r="D2" s="11" t="s">
+        <v>12</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="187.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1241,10 +1312,10 @@
     </row>
     <row r="4" spans="1:5" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1252,20 +1323,20 @@
     </row>
     <row r="5" spans="1:5" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1279,8 +1350,9 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
